--- a/Data binding/Order Data.xlsx
+++ b/Data binding/Order Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damar\Documents\SKRIPSI\YukJahit\yuk-jahit-Katalon\Data binding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA02037-6BF7-4C10-8C97-B480C068C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270C127B-AE58-49DE-8335-52949F2F434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{27322C21-FE85-425D-A43E-F683E7125348}"/>
+    <workbookView xWindow="7200" yWindow="4230" windowWidth="21600" windowHeight="11835" xr2:uid="{27322C21-FE85-425D-A43E-F683E7125348}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>user@gmail.com</t>
-  </si>
-  <si>
-    <t>user1234</t>
-  </si>
-  <si>
-    <t>yukjahit</t>
-  </si>
-  <si>
     <t>hasOrder</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>zeroorderaccount@email.com</t>
+    <t>yukjahitOrder@email.com</t>
+  </si>
+  <si>
+    <t>yukjahitNoOrder@email.com</t>
+  </si>
+  <si>
+    <t>yukjahit123</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,21 +421,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -446,10 +443,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
